--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -62,7 +62,73 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:24 AM</t>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>76:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 29 July, 2025 9:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +790,236 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>24</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>32</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>23</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>197.05000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +1033,40 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:35 AM</t>
+    <t>Tuesday, 29 July, 2025 9:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -835,24 +844,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,31 +870,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -894,31 +903,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,31 +936,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -960,66 +969,99 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>35</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>197.05000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>241.59999999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1105,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -83,6 +95,30 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -98,9 +134,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -113,12 +146,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -137,7 +179,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:37 AM</t>
+    <t>Tuesday, 29 July, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -844,7 +886,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -854,14 +896,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,31 +912,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,31 +945,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,31 +978,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,31 +1011,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1002,66 +1044,198 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>241.59999999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>38</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>38</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>38</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>39</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>38</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1284,30 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:42 AM</t>
+    <t>Tuesday, 29 July, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -179,7 +179,19 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:43 AM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 29 July, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,38 +1216,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>288.64999999999998</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>38</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>323.64999999999998</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1349,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:45 AM</t>
+    <t>Tuesday, 29 July, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -62,28 +62,58 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
@@ -107,6 +137,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -119,13 +161,22 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8490:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -137,7 +188,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>76:0</t>
+    <t>77:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -149,12 +200,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -167,6 +212,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -182,16 +233,13 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:47 AM</t>
+    <t>Tuesday, 29 July, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +930,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +939,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +956,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +972,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +989,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,14 +1005,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,14 +1022,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1038,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,11 +1055,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1023,31 +1071,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,31 +1104,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,31 +1137,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,31 +1170,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,31 +1203,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,31 +1236,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1221,66 +1269,231 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>323.64999999999998</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>61</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>62</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>43</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>43</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>43</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>56</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>43</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>32</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>43</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>534.64999999999998</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1567,35 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:51 AM</t>
+    <t>Tuesday, 29 July, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -996,7 +1008,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1005,14 +1017,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1022,14 +1034,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1045,7 +1057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1067,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1083,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1111,13 +1123,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1128,7 +1140,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1144,13 +1156,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1161,7 +1173,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,7 +1206,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1216,7 +1228,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1227,7 +1239,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1249,7 +1261,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1276,21 +1288,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1302,7 +1314,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1315,15 +1327,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1335,7 +1347,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1348,15 +1360,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1368,7 +1380,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1381,11 +1393,11 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1401,28 +1413,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1434,66 +1446,99 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>534.64999999999998</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>76</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>77</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>36</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>47</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>78</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>565.64999999999998</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1637,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -251,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:52 AM</t>
+    <t>Tuesday, 29 July, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,11 +1151,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1149,31 +1167,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1182,31 +1200,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1248,31 +1266,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1281,31 +1299,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,24 +1332,24 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1354,21 +1372,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1380,7 +1398,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1393,15 +1411,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1413,7 +1431,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1426,15 +1444,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1446,28 +1464,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1479,66 +1497,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>565.64999999999998</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>80</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>50</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>36</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>50</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>669.23000000000002</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1726,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -191,6 +191,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -269,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:08 AM</t>
+    <t>Tuesday, 29 July, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1316,14 +1322,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,31 +1338,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,14 +1371,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,11 +1388,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1398,14 +1404,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1448,11 +1454,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1464,7 +1470,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1481,11 +1487,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,11 +1553,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1563,14 +1569,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1580,49 +1586,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>669.23000000000002</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>36</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>50</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>695.23000000000002</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>89</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>90</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1775,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
+    <t>83.1600</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -188,7 +188,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>124.0000</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -275,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:09 AM</t>
+    <t>Tuesday, 29 July, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1147,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1164,7 +1164,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1279,7 +1279,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1296,7 +1296,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1631,7 +1631,7 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="P29" s="13">
-        <v>695.23000000000002</v>
+        <v>798.80999999999995</v>
       </c>
       <c r="Q29" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -275,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:33 AM</t>
+    <t>Tuesday, 29 July, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -275,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:39 AM</t>
+    <t>Tuesday, 29 July, 2025 10:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1312,7 +1321,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,11 +1331,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1338,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,14 +1364,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1371,31 +1380,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1470,7 +1479,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1487,7 +1496,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1524,7 +1533,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1536,7 +1545,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1553,11 +1562,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1569,14 +1578,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1609,7 +1618,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1630,38 +1639,71 @@
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>798.80999999999995</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>88</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>36</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>50</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>821.80999999999995</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1822,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -158,6 +167,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -245,9 +266,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -284,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:40 AM</t>
+    <t>Tuesday, 29 July, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,7 +1108,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1100,14 +1118,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1116,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1140,7 +1158,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1156,7 +1174,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1173,7 +1191,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1189,7 +1207,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,31 +1233,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,11 +1283,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1281,20 +1299,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1321,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1347,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,11 +1382,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1380,14 +1398,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,28 +1431,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1446,31 +1464,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,28 +1497,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1512,28 +1530,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1545,7 +1563,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1558,18 +1576,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,7 +1596,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1591,15 +1609,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1611,28 +1629,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1644,66 +1662,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>821.80999999999995</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>91</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>21</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>57</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>39</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>57</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>95</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>924.37</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>97</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1911,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:57 AM</t>
+    <t>Tuesday, 29 July, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -80,13 +80,13 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -155,6 +155,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:07 AM</t>
+    <t>Tuesday, 29 July, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1026,7 +1035,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1240,7 +1249,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,14 +1259,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1299,31 +1308,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,31 +1341,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1405,7 +1414,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1438,7 +1447,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,11 +1457,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,31 +1506,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,28 +1539,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1563,31 +1572,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1609,18 +1618,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,7 +1651,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1650,7 +1659,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1662,7 +1671,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1675,15 +1684,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1695,28 +1704,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1735,13 +1744,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1756,38 +1765,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>924.37</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>39</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>60</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>98</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1000.37</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +1963,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:17 AM</t>
+    <t>Tuesday, 29 July, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -188,6 +188,9 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -290,6 +293,12 @@
     <t>4.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:26 AM</t>
+    <t>Tuesday, 29 July, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,21 +1357,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1374,31 +1383,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,14 +1416,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,11 +1466,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1473,14 +1482,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,11 +1499,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1532,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,31 +1548,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,28 +1581,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1605,31 +1614,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1651,18 +1660,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,7 +1680,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1684,15 +1693,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1704,7 +1713,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1717,15 +1726,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1744,13 +1753,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1758,7 +1767,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1770,66 +1779,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1000.37</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>61</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>98</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>100</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>39</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>61</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1057.3699999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>105</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2043,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -320,7 +320,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:40 AM</t>
+    <t>Tuesday, 29 July, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1704,7 +1704,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1874,7 +1874,7 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="P35" s="13">
-        <v>1057.3699999999999</v>
+        <v>1060.3699999999999</v>
       </c>
       <c r="Q35" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>شفاط ثدي فلاي بيبي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:26 PM</t>
+    <t>Tuesday, 29 July, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1796,11 +1805,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1812,14 +1821,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1829,11 +1838,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1852,7 +1861,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1873,38 +1882,71 @@
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1060.3699999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>103</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>39</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>61</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>104</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1125.3699999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2053,10 +2095,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -170,9 +179,6 @@
     <t>0:4</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -188,6 +194,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -329,7 +344,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:32 PM</t>
+    <t>Tuesday, 29 July, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1069,7 +1084,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1079,14 +1094,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,14 +1143,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1160,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1168,7 +1183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1178,14 +1193,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1218,7 +1233,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1234,7 +1249,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1251,7 +1266,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1267,7 +1282,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1284,7 +1299,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1300,7 +1315,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1325,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1341,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1343,11 +1358,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1359,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1391,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,20 +1407,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1416,7 +1431,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1432,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,28 +1473,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1491,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,14 +1523,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,11 +1556,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1564,7 +1579,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1589,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,28 +1605,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1623,31 +1638,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,31 +1671,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,24 +1711,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,7 +1737,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1735,18 +1750,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1762,13 +1777,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1776,10 +1791,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,7 +1803,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1801,15 +1816,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1828,21 +1843,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1854,28 +1869,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1887,66 +1902,132 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1125.3699999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>105</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>21</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>66</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>106</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>107</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>108</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>42</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>66</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>109</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1221.1700000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>111</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>112</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>113</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2181,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -290,6 +290,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -344,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:33 PM</t>
+    <t>Tuesday, 29 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1744,7 +1747,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1754,14 +1757,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1787,11 +1790,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1803,7 +1806,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,11 +1856,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1886,11 +1889,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1919,11 +1922,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1942,7 +1945,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1952,11 +1955,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1985,49 +1988,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1221.1700000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>109</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>42</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>66</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>110</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>111</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1266.1700000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>112</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
         <v>113</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>114</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2191,10 +2227,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -155,6 +164,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -347,7 +368,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:34 PM</t>
+    <t>Tuesday, 29 July, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1075,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1064,14 +1085,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1080,14 +1101,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1104,7 +1125,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1120,7 +1141,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1219,7 +1240,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1269,7 +1290,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1285,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1302,7 +1323,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1318,7 +1339,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,11 +1349,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1377,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1401,7 +1422,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1417,7 +1438,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,7 +1448,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1450,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1481,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,31 +1497,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1547,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,20 +1563,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1582,7 +1603,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1641,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,28 +1695,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1707,31 +1728,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,28 +1761,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1773,31 +1794,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,31 +1827,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,7 +1860,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1852,18 +1873,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,31 +1893,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,7 +1926,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1918,15 +1939,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1938,28 +1959,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1971,28 +1992,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2004,66 +2025,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1266.1700000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>112</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>113</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>21</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>73</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>114</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>116</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>45</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>73</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>117</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1402.1700000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>119</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>120</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>121</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2232,10 +2319,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -164,18 +164,6 @@
     <t>44.5500</t>
   </si>
   <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -368,7 +356,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:52 PM</t>
+    <t>Tuesday, 29 July, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,14 +1337,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1370,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1386,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1403,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1419,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,7 +1436,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1471,7 +1459,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1481,11 +1469,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1497,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1502,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,28 +1518,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1570,13 +1558,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1587,7 +1575,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1603,7 +1591,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,14 +1617,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,11 +1634,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1662,14 +1650,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1667,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1695,14 +1683,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1700,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1741,7 +1729,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1752,7 +1740,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1762,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1801,21 +1789,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1827,31 +1815,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,7 +1848,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1873,15 +1861,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1893,7 +1881,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1906,18 +1894,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,28 +1914,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1959,28 +1947,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1992,7 +1980,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2005,15 +1993,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2025,28 +2013,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2058,99 +2046,66 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="A40" s="7">
-        <v>34</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c t="s" r="C40" s="8">
+      <c r="P40" s="13">
+        <v>1380.1700000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>115</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
         <v>116</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c t="s" r="H40" s="9">
-        <v>45</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c t="s" r="L40" s="10">
-        <v>73</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c t="s" r="N40" s="8">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
         <v>117</v>
       </c>
-      <c r="O40" s="8"/>
-      <c t="s" r="P40" s="11">
-        <v>118</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1402.1700000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>119</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>120</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>121</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2324,15 +2279,10 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
   </si>
   <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.00</t>
   </si>
   <si>
     <t>19.8000</t>
@@ -1014,7 +1020,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1023,14 +1029,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1040,14 +1046,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1056,14 +1062,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1073,14 +1079,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1096,7 +1102,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1106,11 +1112,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1122,14 +1128,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1146,7 +1152,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1162,7 +1168,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1172,14 +1178,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1188,14 +1194,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1205,14 +1211,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1221,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,11 +1277,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1287,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,14 +1310,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1337,14 +1343,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1353,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1386,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1442,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1458,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,31 +1524,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1551,31 +1557,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1584,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1634,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1700,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,31 +1722,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,31 +1755,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,31 +1788,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1848,31 +1854,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,31 +1887,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1921,13 +1927,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1935,10 +1941,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1954,13 +1960,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1968,10 +1974,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,31 +1986,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2013,7 +2019,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2026,18 +2032,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2046,66 +2052,99 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>114</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1380.1700000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>47</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>71</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>115</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>116</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c t="s" r="Q40" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1410.1700000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>117</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>118</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>119</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2279,10 +2318,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -140,6 +140,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEXATROL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -155,9 +161,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -260,7 +263,7 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -362,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:53 PM</t>
+    <t>Tuesday, 29 July, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1270,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1281,10 +1284,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1313,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,14 +1346,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1376,14 +1379,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1458,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1491,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,11 +1511,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1524,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1564,21 +1567,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1590,31 +1593,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,11 +1676,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1689,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,31 +1758,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,28 +1791,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1821,28 +1824,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1861,24 +1864,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1900,15 +1903,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1920,7 +1923,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1933,18 +1936,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,28 +1956,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -1986,28 +1989,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2032,15 +2035,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2059,21 +2062,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2085,66 +2088,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1410.1700000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>115</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>49</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>72</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>116</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>117</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c t="s" r="Q41" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1459.1700000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>118</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
         <v>119</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>120</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2323,10 +2359,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:54 PM</t>
+    <t>Tuesday, 29 July, 2025 12:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>4.00</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
@@ -1996,7 +2002,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2029,7 +2035,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2043,7 +2049,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2055,7 +2061,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2072,11 +2078,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2105,11 +2111,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2121,14 +2127,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2138,49 +2144,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1459.1700000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>117</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>49</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>72</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>118</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>119</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c t="s" r="Q42" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1479.1700000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>120</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>121</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>122</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2364,10 +2403,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:56 PM</t>
+    <t>Tuesday, 29 July, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLOXACEN 400 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -74,18 +89,12 @@
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -95,6 +104,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -371,7 +389,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 12:57 PM</t>
+    <t>Tuesday, 29 July, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1029,7 +1047,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1038,14 +1056,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1055,14 +1073,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1071,14 +1089,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1088,14 +1106,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1128,7 +1146,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1144,7 +1162,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1172,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1170,14 +1188,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1187,14 +1205,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1227,7 +1245,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1243,7 +1261,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1271,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1287,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1304,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1302,14 +1320,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1326,7 +1344,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1335,14 +1353,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1370,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1392,7 +1410,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1426,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,14 +1436,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,7 +1459,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1458,7 +1476,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1474,7 +1492,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1502,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1507,7 +1525,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1535,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,14 +1551,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1568,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1584,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1601,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,31 +1617,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1650,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,31 +1683,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1722,7 +1740,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1756,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1788,7 +1806,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1810,18 +1828,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,31 +1848,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,31 +1881,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,31 +1914,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,31 +1947,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,31 +1980,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,31 +2013,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,31 +2046,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,31 +2079,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2094,31 +2112,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2127,31 +2145,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2160,66 +2178,132 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1479.1700000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>120</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>78</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>121</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>122</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>123</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>55</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>78</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>124</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1622.1700000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>126</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>127</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>128</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2408,10 +2492,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -293,45 +308,60 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8490:0</t>
+    <t>8484:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>77:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>77:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -344,15 +374,9 @@
     <t>سرنجه دواء</t>
   </si>
   <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -389,7 +413,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 1:07 PM</t>
+    <t>Tuesday, 29 July, 2025 2:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1245,7 +1269,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,14 +1278,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1271,14 +1295,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,14 +1311,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1304,14 +1328,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1320,14 +1344,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1337,14 +1361,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1360,7 +1384,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1370,14 +1394,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1386,14 +1410,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1403,14 +1427,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1419,14 +1443,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1436,14 +1460,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1452,14 +1476,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1469,14 +1493,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1526,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1518,14 +1542,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1535,14 +1559,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,14 +1575,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1568,14 +1592,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,11 +1625,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1617,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,11 +1658,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1650,14 +1674,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,14 +1691,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,28 +1707,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1716,31 +1740,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1766,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1856,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1905,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,28 +1938,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1947,28 +1971,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1980,31 +2004,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,7 +2037,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2026,15 +2050,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2046,7 +2070,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2059,18 +2083,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,31 +2103,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2112,28 +2136,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2145,28 +2169,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2178,28 +2202,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2211,28 +2235,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2244,66 +2268,132 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1622.1700000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>126</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>127</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>128</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>83</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>129</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>131</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>60</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>83</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>132</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1814.1700000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>134</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>135</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>136</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2502,10 +2592,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -197,6 +197,9 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -413,7 +416,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:00 PM</t>
+    <t>Tuesday, 29 July, 2025 2:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,7 +1519,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1526,14 +1529,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1542,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1658,11 +1661,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,11 +1694,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1724,14 +1727,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1747,21 +1750,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1773,31 +1776,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,14 +1826,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,14 +1859,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1872,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1892,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,14 +1908,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1925,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,31 +1941,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1971,28 +1974,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2004,28 +2007,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2044,24 +2047,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,7 +2073,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2083,15 +2086,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2116,15 +2119,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2149,18 +2152,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2176,21 +2179,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2209,21 +2212,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2235,28 +2238,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2268,7 +2271,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2281,15 +2284,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2308,21 +2311,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2334,66 +2337,99 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>132</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>60</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>84</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>133</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1814.1700000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>134</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1858.1700000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>135</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
         <v>136</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>137</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2602,10 +2638,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CINNARIZINE 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -416,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:03 PM</t>
+    <t>Tuesday, 29 July, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1321,7 +1330,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1397,14 +1406,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1463,14 +1472,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1486,7 +1495,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1519,7 +1528,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1562,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1585,7 +1594,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1694,11 +1703,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1750,7 +1759,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1776,28 +1785,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1809,31 +1818,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1866,7 +1875,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1882,7 +1891,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1899,7 +1908,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1915,7 +1924,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1974,31 +1983,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,28 +2016,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2040,28 +2049,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2073,31 +2082,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2119,15 +2128,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2139,7 +2148,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2152,11 +2161,11 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2185,18 +2194,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,28 +2214,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2238,28 +2247,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2271,28 +2280,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2317,15 +2326,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2337,28 +2346,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2377,13 +2386,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2398,38 +2407,71 @@
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1858.1700000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>135</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>63</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>87</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>136</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>137</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1922.1700000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>138</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>139</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>140</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2643,10 +2685,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:05 PM</t>
+    <t>Tuesday, 29 July, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:08 PM</t>
+    <t>Tuesday, 29 July, 2025 2:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:11 PM</t>
+    <t>Tuesday, 29 July, 2025 2:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -233,42 +233,42 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 2:25 PM</t>
+    <t>Tuesday, 29 July, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1660,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1674,10 +1674,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1719,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,11 +1736,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1769,11 +1769,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>1922.1700000000001</v>
+        <v>1967.1700000000001</v>
       </c>
       <c r="Q49" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 3:03 PM</t>
+    <t>Tuesday, 29 July, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -410,9 +422,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -425,7 +434,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 3:14 PM</t>
+    <t>Tuesday, 29 July, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1504,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,11 +1514,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,7 +1745,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1759,7 +1768,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,24 +1827,24 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1858,13 +1867,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1875,7 +1884,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2016,31 +2025,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2062,7 +2071,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2089,21 +2098,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2115,31 +2124,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,7 +2157,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2161,15 +2170,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2181,7 +2190,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2194,15 +2203,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2214,7 +2223,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2227,18 +2236,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2247,28 +2256,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2280,28 +2289,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2313,28 +2322,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2359,15 +2368,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2379,28 +2388,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2412,24 +2421,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2440,38 +2449,71 @@
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1967.1700000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>138</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>67</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>91</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>139</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>140</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1971.01</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>141</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>142</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>143</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2690,10 +2732,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -191,13 +191,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:3</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.9200</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
@@ -434,7 +434,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 3:15 PM</t>
+    <t>Tuesday, 29 July, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1521,7 +1521,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2483,7 +2483,7 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="P50" s="13">
-        <v>1971.01</v>
+        <v>1975.0899999999999</v>
       </c>
       <c r="Q50" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -434,7 +434,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 3:43 PM</t>
+    <t>Tuesday, 29 July, 2025 4:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -254,6 +263,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -293,6 +311,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -434,7 +461,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:30 PM</t>
+    <t>Tuesday, 29 July, 2025 4:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,7 +1168,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1151,14 +1178,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1167,14 +1194,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1191,7 +1218,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1207,7 +1234,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1224,7 +1251,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1240,7 +1267,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1257,7 +1284,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1273,7 +1300,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1283,14 +1310,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1299,14 +1326,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1316,14 +1343,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1332,14 +1359,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1356,7 +1383,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1372,7 +1399,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1382,14 +1409,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1398,14 +1425,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1415,14 +1442,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1431,14 +1458,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1448,14 +1475,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1481,14 +1508,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1497,14 +1524,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1518,10 +1545,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1530,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1554,7 +1581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1570,7 +1597,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1603,7 +1630,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,14 +1640,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1629,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1646,14 +1673,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1669,7 +1696,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1686,7 +1713,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1702,7 +1729,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1716,10 +1743,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1778,11 +1805,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,14 +1838,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,20 +1887,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1884,7 +1911,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1900,7 +1927,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,28 +1953,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2049,7 +2076,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,31 +2085,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,28 +2118,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2124,31 +2151,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,24 +2191,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,31 +2217,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,31 +2250,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,7 +2283,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2269,18 +2296,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,20 +2316,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2310,10 +2337,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,31 +2349,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,7 +2382,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2368,15 +2395,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2388,28 +2415,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2421,28 +2448,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2454,66 +2481,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1975.0899999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>141</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>142</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>143</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>97</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>122</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>145</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>97</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>64</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>147</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>70</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>97</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>148</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2257.0900000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>150</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>151</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>152</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2737,10 +2863,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -461,7 +461,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:37 PM</t>
+    <t>Tuesday, 29 July, 2025 4:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -209,6 +209,12 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -461,7 +467,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:38 PM</t>
+    <t>Tuesday, 29 July, 2025 4:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1611,10 +1617,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1646,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,14 +1679,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1722,14 +1728,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1795,7 +1801,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1811,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1854,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,11 +1910,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1920,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1960,21 +1966,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1986,28 +1992,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,31 +2190,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2250,28 +2256,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2283,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,7 +2322,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2329,11 +2335,11 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2362,15 +2368,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2395,18 +2401,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,28 +2421,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2448,28 +2454,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2488,13 +2494,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2502,7 +2508,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2514,7 +2520,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2527,15 +2533,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2547,28 +2553,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2587,59 +2593,92 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>149</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2257.0900000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>72</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>99</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>150</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>151</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2287.0900000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>152</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>153</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>154</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2878,10 +2917,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:42 PM</t>
+    <t>Tuesday, 29 July, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -113,6 +113,27 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -155,9 +176,6 @@
     <t>32.00</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -191,6 +209,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXATROL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -311,12 +341,18 @@
     <t>0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -338,6 +374,21 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -380,60 +431,60 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>77:0</t>
+    <t>76:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب كبيره</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -458,6 +509,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -467,7 +524,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:46 PM</t>
+    <t>Tuesday, 29 July, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1363,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1316,14 +1373,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,14 +1389,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1356,7 +1413,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,14 +1422,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1398,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1415,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1438,7 +1495,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,14 +1505,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1464,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1538,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1504,7 +1561,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,14 +1571,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1530,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,11 +1604,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1563,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1637,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1603,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,14 +1670,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1662,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,11 +1769,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1728,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,11 +1802,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1761,14 +1818,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1835,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,14 +1868,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,11 +1901,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1860,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1990,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,7 +2000,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1976,11 +2033,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1992,31 +2049,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,28 +2148,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2124,31 +2181,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2231,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2214,7 +2271,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2263,21 +2320,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2289,31 +2346,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,31 +2379,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2362,24 +2419,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,28 +2445,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2421,31 +2478,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,28 +2511,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2487,31 +2544,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2520,7 +2577,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2533,18 +2590,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2553,7 +2610,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2566,18 +2623,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2586,28 +2643,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2619,66 +2676,264 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2287.0900000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>152</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>153</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>154</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>25</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>109</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>159</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>109</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>161</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>109</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>141</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>109</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>74</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>167</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>109</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>74</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>168</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>82</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>109</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>169</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2748.0900000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>171</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>172</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>173</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2922,10 +3177,40 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -65,15 +65,18 @@
     <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -257,222 +257,225 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8484:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>76:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>REBO SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8484:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>76:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -524,7 +527,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 4:54 PM</t>
+    <t>Tuesday, 29 July, 2025 5:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1215,7 +1218,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1224,7 +1227,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1241,11 +1244,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1257,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1274,14 +1277,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,7 +1293,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1307,11 +1310,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1323,14 +1326,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1340,14 +1343,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1373,14 +1376,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,7 +1392,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1406,11 +1409,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1439,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1455,14 +1458,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,14 +1475,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1488,14 +1491,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,14 +1508,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,7 +1524,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1538,14 +1541,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1554,7 +1557,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1575,10 +1578,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,11 +1607,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1677,7 +1680,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1707,7 +1710,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1759,7 +1762,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1809,7 +1812,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1842,7 +1845,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1868,11 +1871,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1908,7 +1911,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1957,7 +1960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1974,7 +1977,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,7 +2010,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,7 +2076,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,7 +2109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2155,7 +2158,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2271,7 +2274,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2323,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2370,7 +2373,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,7 +2403,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2469,7 +2472,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,7 +2505,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2518,7 +2521,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2568,7 +2571,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2601,7 +2604,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,7 +2637,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,7 +2646,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2697,7 +2700,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,7 +2729,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2759,11 +2762,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2799,7 +2802,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2829,7 +2832,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2909,7 +2912,7 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c t="s" r="A61" s="14">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2917,13 +2920,13 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c t="s" r="G61" s="15">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
       <c t="s" r="K61" s="17">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -527,7 +536,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:09 PM</t>
+    <t>Tuesday, 29 July, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1738,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1776,10 +1785,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1861,7 +1870,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1927,7 +1936,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1944,7 +1953,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1974,10 +1983,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2151,24 +2160,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2191,17 +2200,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2224,13 +2233,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2257,7 +2266,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2373,7 +2382,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,31 +2457,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2502,7 +2511,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2514,31 +2523,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,31 +2556,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2593,18 +2602,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,7 +2622,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2626,18 +2635,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2659,18 +2668,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,28 +2688,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2712,28 +2721,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2745,28 +2754,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2791,18 +2800,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,31 +2820,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2844,28 +2853,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2877,66 +2886,99 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2748.0900000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>172</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>157</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>112</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>173</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2826.0900000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>175</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>176</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>177</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3210,10 +3252,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>335.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -482,9 +494,6 @@
     <t>9.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -536,7 +545,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:14 PM</t>
+    <t>Tuesday, 29 July, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,7 +2011,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2078,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2118,7 +2127,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2193,28 +2202,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2226,28 +2235,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2259,28 +2268,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2349,7 +2358,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2490,31 +2499,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2523,28 +2532,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2563,24 +2572,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,31 +2598,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,7 +2631,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2635,18 +2644,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,7 +2664,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2668,18 +2677,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2701,18 +2710,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,28 +2730,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2754,28 +2763,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2787,28 +2796,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2833,18 +2842,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2853,31 +2862,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2886,20 +2895,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2907,7 +2916,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2919,66 +2928,99 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2826.0900000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>175</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>95</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>116</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>176</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3161.0900000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>178</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>179</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>180</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3257,10 +3299,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:16 PM</t>
+    <t>Tuesday, 29 July, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -470,6 +470,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -485,12 +491,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>9.0000</t>
   </si>
   <si>
@@ -545,7 +551,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:17 PM</t>
+    <t>Tuesday, 29 July, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2605,7 +2611,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,7 +2670,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2681,14 +2687,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,7 +2703,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2714,14 +2720,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2770,7 +2776,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,7 +2786,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2803,7 +2809,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2819,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2836,7 +2842,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2850,7 +2856,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2862,7 +2868,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2879,14 +2885,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2935,7 +2941,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2968,7 +2974,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2978,49 +2984,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3161.0900000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>95</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>116</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>178</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3183.0900000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>180</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>181</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>182</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3304,10 +3343,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:42 PM</t>
+    <t>Tuesday, 29 July, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>REBO SACHET</t>
   </si>
   <si>
@@ -419,6 +428,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -551,7 +569,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:45 PM</t>
+    <t>Tuesday, 29 July, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,13 +2299,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2298,7 +2316,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,13 +2332,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2347,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2446,7 +2464,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2463,7 +2481,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2479,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2529,7 +2547,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,31 +2589,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2625,10 +2643,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2644,7 +2662,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,7 +2688,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,7 +2754,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,7 +2787,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,11 +2903,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,11 +2969,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3017,49 +3035,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3183.0900000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>181</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>182</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>116</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>77</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>180</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>181</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>182</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>95</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>116</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>184</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3316.9899999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>186</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>187</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>188</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3348,10 +3432,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BENDAX 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -209,6 +221,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -296,9 +317,6 @@
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>67.00</t>
   </si>
   <si>
@@ -371,9 +389,6 @@
     <t>116.00</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>REBO SACHET</t>
   </si>
   <si>
@@ -509,7 +524,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,7 +587,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:46 PM</t>
+    <t>Tuesday, 29 July, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1459,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1451,11 +1469,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1467,7 +1485,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1484,11 +1502,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1500,14 +1518,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1524,7 +1542,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1551,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1550,14 +1568,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,7 +1591,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,11 +1601,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1599,14 +1617,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1672,7 +1690,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1733,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1752,7 +1770,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,7 +1855,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1851,7 +1869,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2052,7 +2070,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2068,7 +2086,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2082,10 +2100,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2177,11 +2195,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,31 +2277,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2332,17 +2350,17 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2365,7 +2383,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2379,10 +2397,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,31 +2409,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,31 +2640,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,31 +2673,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,31 +2706,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2739,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,7 +2772,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2767,18 +2785,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2833,18 +2851,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,7 +2871,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2866,18 +2884,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,31 +2904,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,28 +2937,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2952,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2985,31 +3003,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,28 +3036,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3051,31 +3069,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3084,66 +3102,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3316.9899999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>188</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>122</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>84</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>186</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>187</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>188</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>40</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>122</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>190</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3417.9899999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>192</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>193</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>194</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3442,10 +3526,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:50 PM</t>
+    <t>Tuesday, 29 July, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -482,10 +491,22 @@
     <t>8:0</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -587,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 5:57 PM</t>
+    <t>Tuesday, 29 July, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1876,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1872,7 +1893,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1888,7 +1909,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1935,10 +1956,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1987,7 +2008,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2020,7 +2041,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2086,7 +2107,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2124,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,7 +2140,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2136,7 +2157,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2173,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2166,10 +2187,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2251,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2317,7 +2338,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,24 +2364,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2383,24 +2404,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,31 +2430,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2449,13 +2470,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2482,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2581,7 +2602,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2598,7 +2619,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2614,7 +2635,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2631,7 +2652,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2647,7 +2668,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,31 +2727,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2763,7 +2784,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2779,24 +2800,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,7 +2859,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2851,18 +2872,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,7 +2925,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2917,18 +2938,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,7 +2958,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2950,18 +2971,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,28 +3024,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3036,28 +3057,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3069,31 +3090,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3102,28 +3123,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3135,31 +3156,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3168,66 +3189,132 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3417.9899999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>192</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>195</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>125</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>87</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>193</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>194</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>40</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>125</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3538.9899999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>199</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>200</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>201</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3536,10 +3623,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:10 PM</t>
+    <t>Tuesday, 29 July, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -176,13 +176,13 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>93.0000</t>
   </si>
   <si>
     <t>CINNARIZINE 75MG 20 CAPS.</t>
@@ -377,6 +377,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -443,6 +452,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -590,9 +605,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -608,7 +620,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:11 PM</t>
+    <t>Tuesday, 29 July, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1629,7 +1641,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2371,7 +2383,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2397,24 +2409,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2437,24 +2449,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,31 +2475,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,13 +2515,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2536,7 +2548,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2734,7 +2746,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,28 +2772,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2793,31 +2805,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,31 +2838,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2892,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,7 +2937,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2938,18 +2950,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2970,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,7 +3003,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3004,18 +3016,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3037,18 +3049,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,31 +3069,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,28 +3102,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3123,24 +3135,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3163,24 +3175,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3222,31 +3234,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,66 +3267,132 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>198</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3538.9899999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>199</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>128</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>87</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>40</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>128</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>201</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3661.9899999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3633,10 +3711,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADVANCEVELA MAX MASSAGE 50GM CREAM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADWIFLOXACEN 400 MG 7 F.C. TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
     <t>99.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -593,12 +602,6 @@
     <t>شفاط ثدي فلاي بيبي</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -620,7 +623,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:15 PM</t>
+    <t>Tuesday, 29 July, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1311,7 +1314,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1320,14 +1323,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1344,7 +1347,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1353,14 +1356,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1377,7 +1380,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1410,7 +1413,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1426,7 +1429,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1443,7 +1446,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1459,7 +1462,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1472,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1488,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1505,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,14 +1521,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1591,7 +1594,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1604,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1620,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1637,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1653,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1671,10 +1674,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1686,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1703,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1773,7 +1776,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1802,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1822,7 +1825,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1835,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1869,10 +1872,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,14 +1884,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1901,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1921,7 +1924,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1938,7 +1941,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1954,7 +1957,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2001,10 +2004,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2053,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2086,7 +2089,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2099,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2132,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2155,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2169,7 +2172,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,7 +2188,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2202,7 +2205,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2218,7 +2221,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2232,10 +2235,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2247,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2264,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2284,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2297,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2317,7 +2320,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2330,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2346,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2367,7 +2370,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2400,7 +2403,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2416,7 +2419,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,11 +2429,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2442,24 +2445,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2482,24 +2485,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,31 +2511,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2548,13 +2551,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2581,7 +2584,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2627,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,7 +2693,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2713,7 +2716,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2730,7 +2733,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2746,7 +2749,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2763,7 +2766,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2779,7 +2782,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,31 +2841,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,31 +2874,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2917,7 +2920,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2925,10 +2928,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,20 +2940,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2958,10 +2961,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +2973,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,7 +3006,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3016,18 +3019,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3043,24 +3046,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3076,24 +3079,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,20 +3105,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3123,10 +3126,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,28 +3138,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,28 +3171,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3214,15 +3217,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3241,24 +3244,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3274,24 +3277,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3307,21 +3310,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3333,66 +3336,99 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>201</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>43</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>131</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>202</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3661.9899999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>203</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3726.9899999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>204</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
         <v>205</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>206</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +3757,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>45.00</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -476,6 +485,9 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -536,6 +548,15 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -623,7 +644,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:35 PM</t>
+    <t>Tuesday, 29 July, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2287,7 +2308,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,7 +2318,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2320,7 +2341,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2353,7 +2374,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2436,7 +2457,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2452,7 +2473,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,11 +2483,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2478,24 +2499,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2518,24 +2539,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,31 +2565,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2584,13 +2605,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2617,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2643,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,7 +2747,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2749,7 +2770,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2766,7 +2787,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,28 +2895,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2907,31 +2928,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,31 +3027,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3046,21 +3067,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3072,7 +3093,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3085,18 +3106,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3112,24 +3133,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,7 +3159,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3151,18 +3172,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3178,24 +3199,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,31 +3225,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,7 +3258,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3250,15 +3271,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3270,31 +3291,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3303,28 +3324,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3336,28 +3357,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3369,66 +3390,165 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3726.9899999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>204</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>205</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>16</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>134</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>90</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>206</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>207</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>134</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>90</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>43</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>134</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>209</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3794.9899999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>211</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>212</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>213</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3762,10 +3882,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -476,6 +476,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -626,6 +629,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t xml:space="preserve">كريم ايفا  وسط</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -638,13 +650,10 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:40 PM</t>
+    <t>Tuesday, 29 July, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2770,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2836,7 +2845,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,31 +2970,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3166,7 +3175,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,7 +3201,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,7 +3267,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3430,7 +3439,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3463,7 +3472,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3506,49 +3515,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3794.9899999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>211</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>134</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>90</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>212</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>43</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>134</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>207</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>213</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3994.9899999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>214</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>215</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>216</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3897,10 +3972,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -128,13 +128,13 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
-    <t>9.1200</t>
+    <t>18.2400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
@@ -227,9 +227,6 @@
     <t>94.0500</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -242,13 +239,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXATROL EYE OINT. 5 GM</t>
@@ -305,9 +302,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -443,6 +437,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -473,9 +473,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -593,10 +590,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -653,7 +647,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 6:42 PM</t>
+    <t>Tuesday, 29 July, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1519,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1529,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1839,7 +1833,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,7 +1842,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1865,11 +1859,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1881,14 +1875,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,14 +1892,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1914,7 +1908,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1931,7 +1925,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1947,7 +1941,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1964,11 +1958,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1980,7 +1974,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1997,11 +1991,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2013,14 +2007,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2024,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,7 +2040,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2063,7 +2057,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2079,7 +2073,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2096,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2112,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,11 +2123,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2145,7 +2139,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2178,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,11 +2189,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2211,7 +2205,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2228,14 +2222,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,7 +2238,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2261,11 +2255,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>53</v>
@@ -2277,7 +2271,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2294,11 +2288,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2310,7 +2304,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2327,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2343,14 +2337,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2364,7 +2358,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2376,7 +2370,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2393,11 +2387,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2409,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,11 +2420,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2442,7 +2436,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2459,11 +2453,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2475,7 +2469,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2492,11 +2486,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2508,7 +2502,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2525,11 +2519,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,7 +2535,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2554,15 +2548,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2574,7 +2568,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2591,11 +2585,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2607,7 +2601,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2620,15 +2614,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2640,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2651,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2673,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,11 +2783,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2805,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,11 +2816,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2838,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,11 +2849,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2871,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2948,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,31 +2997,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,31 +3030,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,31 +3063,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,28 +3096,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3135,31 +3129,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,31 +3162,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,31 +3195,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,7 +3228,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3247,18 +3241,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,7 +3261,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3280,18 +3274,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,7 +3294,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3313,18 +3307,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,28 +3327,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3366,28 +3360,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3399,28 +3393,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3432,7 +3426,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3445,18 +3439,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,31 +3459,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3498,31 +3492,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3531,28 +3525,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3564,66 +3558,99 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>210</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>43</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>132</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>205</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4043.9899999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>212</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>213</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3994.9899999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>214</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>215</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>216</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3982,10 +4009,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -359,6 +359,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -647,7 +659,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:15 PM</t>
+    <t>Tuesday, 29 July, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2389,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2427,7 +2439,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,7 +2455,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2469,7 +2481,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2535,28 +2547,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2568,31 +2580,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2601,31 +2613,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2634,28 +2646,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,7 +2769,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2849,11 +2861,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,31 +3042,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3076,7 +3088,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3084,10 +3096,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,31 +3108,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,20 +3141,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3169,24 +3181,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,31 +3207,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,31 +3240,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,7 +3273,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3274,18 +3286,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,7 +3306,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3307,18 +3319,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,7 +3339,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3340,18 +3352,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,28 +3372,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3393,28 +3405,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3426,28 +3438,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3459,7 +3471,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3472,18 +3484,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3492,31 +3504,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3525,31 +3537,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3558,20 +3570,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3579,7 +3591,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3591,66 +3603,99 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4043.9899999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>212</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>213</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>214</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>43</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>136</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>209</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4091.9899999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>216</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>217</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>218</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4014,10 +4059,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -602,7 +611,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -659,7 +671,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:17 PM</t>
+    <t>Tuesday, 29 July, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1444,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1442,11 +1454,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1475,14 +1487,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1564,7 +1576,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1597,7 +1609,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1607,11 +1619,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1623,7 +1635,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1640,11 +1652,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1680,7 +1692,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1689,14 +1701,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1729,7 +1741,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1739,14 +1751,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,14 +1817,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1828,7 +1840,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1883,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1911,7 +1923,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1927,7 +1939,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2036,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2073,10 +2085,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2125,7 +2137,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2224,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2241,7 +2253,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2257,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2274,7 +2286,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2290,7 +2302,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2304,10 +2316,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2356,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,7 +2378,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2455,7 +2467,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2538,7 +2550,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2554,7 +2566,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2580,24 +2592,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2620,24 +2632,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,31 +2658,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2686,13 +2698,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2719,7 +2731,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,11 +2873,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2917,7 +2929,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2983,7 +2995,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3000,7 +3012,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3016,7 +3028,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,31 +3087,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3148,24 +3160,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3181,21 +3193,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3207,20 +3219,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3228,10 +3240,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,31 +3285,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3319,18 +3331,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,7 +3351,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3352,18 +3364,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,7 +3384,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3385,7 +3397,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3393,10 +3405,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,28 +3417,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3438,28 +3450,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3471,28 +3483,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3504,7 +3516,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3517,18 +3529,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,31 +3549,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3570,31 +3582,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3603,28 +3615,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3636,66 +3648,99 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4091.9899999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>216</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>217</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>218</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>47</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>139</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>213</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4106.4700000000003</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>220</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>221</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>222</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4064,10 +4109,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -275,6 +284,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -374,12 +395,18 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -407,9 +434,6 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -611,10 +635,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -671,7 +692,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:22 PM</t>
+    <t>Tuesday, 29 July, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1894,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1890,7 +1911,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1906,7 +1927,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1923,7 +1944,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1939,7 +1960,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1986,10 +2007,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2038,7 +2059,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,11 +2135,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2451,7 +2472,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2467,7 +2488,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,11 +2597,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,31 +2646,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,10 +2700,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,7 +2712,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2704,11 +2725,11 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2731,17 +2752,17 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,24 +2818,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,11 +2894,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3094,7 +3115,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>178</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,31 +3141,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,31 +3174,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,31 +3207,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,31 +3240,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,31 +3273,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,31 +3306,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3318,28 +3339,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3351,7 +3372,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3364,18 +3385,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>201</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,31 +3405,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3430,18 +3451,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,31 +3471,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,31 +3504,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,7 +3537,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3529,15 +3550,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3549,31 +3570,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3582,7 +3603,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3595,18 +3616,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3615,28 +3636,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3648,31 +3669,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3681,66 +3702,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4106.4700000000003</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>222</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>16</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>147</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>99</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>223</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>224</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>147</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>99</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>225</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>47</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>147</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>220</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>221</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>222</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4227.5349999999999</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>227</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>228</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>229</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4114,10 +4234,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -305,13 +305,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>FAYCID HAIR OIL 60 ML</t>
@@ -398,6 +401,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>165.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -663,6 +669,9 @@
   </si>
   <si>
     <t>شفاط ثدي فلاي بيبي</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2175,7 +2184,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2184,7 +2193,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2201,7 +2210,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2217,7 +2226,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2234,11 +2243,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2250,7 +2259,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2271,7 +2280,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2283,7 +2292,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2316,7 +2325,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2366,11 +2375,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>45</v>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>57</v>
@@ -2415,7 +2424,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2502,7 +2511,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,7 +2573,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2587,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2620,7 +2629,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2667,7 +2676,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2745,24 +2754,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2785,24 +2794,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,31 +2820,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2851,13 +2860,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2884,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,31 +3249,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,31 +3282,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,20 +3315,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3327,10 +3336,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,28 +3348,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3372,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3412,24 +3421,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,31 +3447,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,7 +3480,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3484,18 +3493,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3517,18 +3526,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3550,18 +3559,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3577,17 +3586,17 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3610,21 +3619,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3643,21 +3652,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3669,7 +3678,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3682,18 +3691,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3702,31 +3711,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3735,31 +3744,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3768,31 +3777,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3808,59 +3817,125 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>226</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4227.5349999999999</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>227</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>150</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>99</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>228</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>47</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>150</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>223</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>229</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4283.375</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>230</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>231</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>232</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4249,10 +4324,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -182,18 +182,18 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>215.0000</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>172.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -386,246 +386,246 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8484:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>76:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>REBO SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8484:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>76:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:23 PM</t>
+    <t>Tuesday, 29 July, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2415,7 +2415,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,7 +2514,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2596,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2952,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +2969,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2985,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>101</v>
@@ -3018,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3167,11 +3167,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3216,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,14 +3266,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>188</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3282,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,11 +3299,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3315,14 +3315,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3365,11 +3365,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3381,14 +3381,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3431,14 +3431,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3619,7 +3619,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1">
       <c r="P85" s="13">
-        <v>4283.375</v>
+        <v>4338.375</v>
       </c>
       <c r="Q85" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -701,7 +701,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:27 PM</t>
+    <t>Tuesday, 29 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -182,318 +182,333 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>258.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>CINNARIZINE 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>335.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>215.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>CINNARIZINE 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>335.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>REBO SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -611,9 +626,6 @@
     <t>76:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -641,13 +653,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -659,9 +674,6 @@
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش فازلين 10*20 سم </t>
   </si>
   <si>
@@ -701,7 +713,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:28 PM</t>
+    <t>Tuesday, 29 July, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1750,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1748,14 +1760,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1764,14 +1776,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1781,11 +1793,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>47</v>
@@ -1797,7 +1809,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1830,7 +1842,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1851,7 +1863,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1863,14 +1875,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1896,7 +1908,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1913,11 +1925,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1929,7 +1941,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1946,11 +1958,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>45</v>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1979,11 +1991,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2184,7 +2196,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,7 +2205,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2210,7 +2222,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2226,7 +2238,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2243,11 +2255,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2280,7 +2292,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,11 +2321,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2365,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2382,7 +2394,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2398,7 +2410,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2415,7 +2427,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2431,7 +2443,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2445,10 +2457,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,14 +2486,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2563,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,7 +2618,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2629,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,11 +2651,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2679,7 +2691,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2695,7 +2707,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2721,7 +2733,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,11 +2783,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2787,28 +2799,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2820,31 +2832,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,31 +2865,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,28 +2898,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,11 +3080,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3295,7 +3307,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3306,7 +3318,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,31 +3327,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,28 +3393,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3414,31 +3426,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,31 +3492,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,7 +3525,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3526,18 +3538,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3546,7 +3558,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3559,18 +3571,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3579,7 +3591,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3592,7 +3604,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3600,10 +3612,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3612,28 +3624,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3645,28 +3657,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3678,28 +3690,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3711,28 +3723,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3744,31 +3756,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3777,31 +3789,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3843,20 +3855,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3864,7 +3876,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3876,66 +3888,99 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4338.375</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>230</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>231</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>232</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>47</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>154</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>227</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4435.2550000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>234</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>235</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>236</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4334,10 +4379,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -578,16 +587,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8484:0</t>
+    <t>8483:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -623,10 +629,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>76:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
+    <t>75:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -662,7 +668,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>21.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -689,6 +695,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم ايفا  وسط</t>
   </si>
   <si>
@@ -704,7 +713,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -713,7 +722,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:33 PM</t>
+    <t>Tuesday, 29 July, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1668,7 +1677,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1684,7 +1693,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1694,11 +1703,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1783,7 +1792,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1793,14 +1802,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1816,7 +1825,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1915,7 +1924,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2031,7 +2040,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2061,10 +2070,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2146,7 +2155,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2226,10 +2235,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2427,7 +2436,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2460,7 +2469,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2490,10 +2499,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2608,7 +2617,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2707,7 +2716,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2754,7 +2763,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2832,24 +2841,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2872,24 +2881,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,31 +2907,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2938,13 +2947,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2971,7 +2980,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3169,7 +3178,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3252,7 +3261,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,31 +3336,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,31 +3369,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,20 +3402,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3414,10 +3423,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3426,28 +3435,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3459,31 +3468,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,7 +3567,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3571,18 +3580,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3604,18 +3613,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3637,18 +3646,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3664,21 +3673,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3690,28 +3699,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3730,21 +3739,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3756,28 +3765,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3789,31 +3798,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3822,31 +3831,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3862,24 +3871,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3888,28 +3897,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3921,66 +3930,99 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4435.2550000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>234</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>235</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>51</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>157</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>230</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>236</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4524.9350000000004</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>237</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>238</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>239</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4384,10 +4426,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>15.3600</t>
   </si>
   <si>
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
@@ -296,6 +296,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -311,16 +320,31 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>6:6</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>11.7600</t>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>FAYCID HAIR OIL 60 ML</t>
@@ -446,6 +470,12 @@
     <t>111.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -578,6 +608,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>18.4800</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -587,13 +626,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8483:0</t>
+    <t>8480:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>13:0</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -632,7 +671,7 @@
     <t>75:0</t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>80.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -653,22 +692,19 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -695,7 +731,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>75.0000</t>
+    <t>105.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كريم ايفا  وسط</t>
@@ -716,13 +752,13 @@
     <t>27:0</t>
   </si>
   <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 29 July, 2025 7:46 PM</t>
+    <t>Tuesday, 29 July, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1677,7 +1713,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2155,7 +2191,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,7 +2201,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2188,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2267,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2283,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2268,10 +2304,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,14 +2415,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,14 +2432,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,14 +2448,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,14 +2465,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2445,14 +2481,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,14 +2498,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2478,14 +2514,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2511,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,14 +2580,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2561,14 +2597,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2577,14 +2613,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2610,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,14 +2663,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2643,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,14 +2712,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,11 +2729,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2709,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2742,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2775,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2808,7 +2844,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2825,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,31 +2910,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2907,7 +2943,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2924,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2940,7 +2976,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2953,15 +2989,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2973,28 +3009,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3006,7 +3042,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3023,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,31 +3075,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3096,7 +3132,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3112,7 +3148,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3158,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3138,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3204,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3237,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3336,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>190</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,20 +3405,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3393,7 +3429,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3409,24 +3445,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3442,24 +3478,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,31 +3504,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3508,24 +3544,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,28 +3603,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3600,31 +3636,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,7 +3669,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3646,18 +3682,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3699,31 +3735,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,31 +3768,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3765,7 +3801,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3778,18 +3814,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3798,28 +3834,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3831,31 +3867,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3864,7 +3900,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3877,18 +3913,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3897,28 +3933,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3930,31 +3966,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3963,66 +3999,198 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4524.9350000000004</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>237</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>238</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>239</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>167</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>242</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>244</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>167</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>109</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>245</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>246</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>167</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>109</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>248</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>51</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>167</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>242</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4756.2150000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>249</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>250</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>251</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4431,10 +4599,30 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -152,13 +161,16 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:5</t>
+    <t>0:4</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.3600</t>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>BENDAX 100MG/5ML SUSP. 60ML</t>
@@ -203,6 +215,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -278,9 +299,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEXATROL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -320,6 +338,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -344,9 +371,6 @@
     <t>15.6000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -512,9 +536,6 @@
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -563,9 +584,6 @@
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -668,10 +686,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>75:0</t>
-  </si>
-  <si>
-    <t>80.0000</t>
+    <t>74:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -704,36 +722,39 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>شفاط ثدي فلاي بيبي</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب كبيره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش فازلين 10*20 سم </t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>شفاط ثدي فلاي بيبي</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم ايفا  وسط</t>
   </si>
   <si>
@@ -749,16 +770,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 7:59 PM</t>
+    <t>Tuesday, 29 July, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,24 +1618,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1630,7 +1651,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1647,7 +1668,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1663,7 +1684,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1680,7 +1701,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1762,7 +1783,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1788,7 +1809,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1861,7 +1882,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1894,7 +1915,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,7 +2024,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2026,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2109,7 +2130,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2118,7 +2139,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2158,7 +2179,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,7 +2255,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2257,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2323,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2469,7 +2490,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2554,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2653,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2670,7 +2691,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2686,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,11 +2849,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2844,7 +2865,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,31 +3030,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,10 +3084,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,7 +3096,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3088,11 +3109,11 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3115,21 +3136,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3141,7 +3162,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,31 +3195,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,31 +3558,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,31 +3591,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,31 +3624,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,31 +3657,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,31 +3690,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,31 +3723,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,7 +3789,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3781,18 +3802,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3808,24 +3829,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,7 +3855,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3847,18 +3868,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3874,24 +3895,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,31 +3921,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,7 +3954,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3946,15 +3967,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3966,28 +3987,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3999,31 +4020,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4072,21 +4093,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4105,24 +4126,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4138,59 +4159,158 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4756.2150000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>38</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>118</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>252</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>253</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>38</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>118</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>255</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>55</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>38</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>249</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>250</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>251</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4871.0150000000003</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>256</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>257</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4619,10 +4739,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 8:01 PM</t>
+    <t>Tuesday, 29 July, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ADWIFLOXACEN 400 MG 7 F.C. TABS.</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -224,6 +236,18 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -326,10 +350,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
@@ -416,6 +440,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -548,12 +581,6 @@
     <t>REBO SACHET</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -716,7 +743,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -776,10 +803,13 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>مزيل عرق اكس اسبري</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 8:04 PM</t>
+    <t>Tuesday, 29 July, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1470,7 +1500,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1479,14 +1509,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1496,14 +1526,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1519,7 +1549,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1529,14 +1559,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1545,14 +1575,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1569,7 +1599,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1585,7 +1615,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1595,14 +1625,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1611,31 +1641,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1644,31 +1674,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1677,14 +1707,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1694,14 +1724,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1710,14 +1740,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1727,14 +1757,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1750,7 +1780,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1790,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1806,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1793,14 +1823,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1816,7 +1846,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,11 +1856,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1842,7 +1872,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1859,11 +1889,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1875,14 +1905,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1915,7 +1945,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1955,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1981,7 +2011,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2021,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2120,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2153,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2304,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,14 +2351,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2681,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,14 +2846,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>53</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2865,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2945,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,11 +2978,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2964,7 +2994,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,7 +3093,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3080,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,31 +3159,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,7 +3192,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3195,28 +3225,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3228,28 +3258,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3261,7 +3291,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3278,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,31 +3324,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3334,7 +3364,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3351,7 +3381,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3397,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3598,7 +3628,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3638,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3645,10 +3675,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3664,24 +3694,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,31 +3720,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,31 +3753,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,31 +3786,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3796,24 +3826,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3829,24 +3859,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,31 +3885,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>235</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,31 +3951,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,31 +3984,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,31 +4017,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,31 +4050,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,28 +4083,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4086,28 +4116,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4119,31 +4149,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,31 +4182,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,28 +4215,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4218,31 +4248,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>155</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4251,66 +4281,198 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4871.0150000000003</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>256</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>257</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>260</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>16</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>42</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>126</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>261</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>262</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>42</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>126</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>42</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>144</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>265</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>59</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>42</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>258</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5235.2650000000003</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>266</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>267</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>268</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +4916,30 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 8:42 PM</t>
+    <t>Tuesday, 29 July, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 8:53 PM</t>
+    <t>Tuesday, 29 July, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4420,7 +4420,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4434,15 +4434,15 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>5235.2650000000003</v>
+        <v>5270.2650000000003</v>
       </c>
       <c r="Q98" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 8:56 PM</t>
+    <t>Tuesday, 29 July, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ADVANCEVELA MAX MASSAGE 50GM CREAM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -131,6 +143,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
     <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>9.6000</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -350,10 +365,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>63.8400</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>79.6800</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
@@ -419,9 +434,6 @@
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -449,6 +461,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -632,6 +653,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -671,13 +701,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8480:0</t>
+    <t>8468:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -737,7 +770,10 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -809,7 +845,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:06 PM</t>
+    <t>Tuesday, 29 July, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,7 +1519,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1493,14 +1529,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1509,14 +1545,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1526,14 +1562,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1566,7 +1602,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1582,7 +1618,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1592,14 +1628,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1608,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1632,7 +1668,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1648,7 +1684,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1658,14 +1694,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1674,31 +1710,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1707,14 +1743,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1724,14 +1760,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1740,31 +1776,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1773,7 +1809,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1790,14 +1826,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1813,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1823,14 +1859,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1839,14 +1875,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1856,14 +1892,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1872,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1889,14 +1925,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1912,7 +1948,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,14 +1958,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1938,14 +1974,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,14 +1991,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1978,7 +2014,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1988,14 +2024,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2011,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2021,14 +2057,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2044,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2110,7 +2146,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2176,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2226,7 +2262,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2242,7 +2278,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2259,7 +2295,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2275,7 +2311,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2341,7 +2377,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,10 +2424,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2400,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2417,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2483,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2506,7 +2542,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,14 +2585,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2622,7 +2658,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2638,7 +2674,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2671,7 +2707,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,11 +2750,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2737,7 +2773,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2754,7 +2790,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2780,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2846,14 +2882,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2879,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2912,14 +2948,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2928,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2994,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,14 +3080,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3060,14 +3096,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3265,24 +3301,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3298,7 +3334,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3312,10 +3348,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,31 +3360,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,31 +3393,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,31 +3459,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3489,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3661,7 +3697,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3678,7 +3714,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3694,7 +3730,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3711,7 +3747,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3727,7 +3763,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3786,28 +3822,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3819,31 +3855,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3921,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,31 +3954,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,31 +3987,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,31 +4020,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,31 +4053,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,31 +4086,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,31 +4119,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,31 +4152,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,31 +4185,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,31 +4218,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,31 +4251,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,31 +4284,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,31 +4317,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4314,31 +4350,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4347,31 +4383,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4380,31 +4416,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4413,66 +4449,198 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5270.2650000000003</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>266</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>267</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>268</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>272</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>20</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>49</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>131</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>274</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>49</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>131</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>49</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>148</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>277</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>49</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>270</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5715.2950000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>278</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>279</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>280</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4936,10 +5104,30 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -845,7 +845,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:09 PM</t>
+    <t>Tuesday, 29 July, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DAKY SUNSCREEN CREAM 6GM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -713,6 +722,15 @@
     <t>25:0</t>
   </si>
   <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -845,7 +863,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:11 PM</t>
+    <t>Tuesday, 29 July, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2278,13 +2296,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2295,7 +2313,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2311,7 +2329,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,7 +2346,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2344,7 +2362,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2361,7 +2379,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2377,7 +2395,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2410,7 +2428,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,7 +2494,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2509,7 +2527,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,7 +2640,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>59</v>
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2688,10 +2706,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2740,7 +2758,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2806,7 +2824,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2889,7 +2907,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2922,7 +2940,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,7 +2973,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2971,7 +2989,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2988,7 +3006,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3004,7 +3022,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3018,10 +3036,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,7 +3088,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3136,7 +3154,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3235,7 +3253,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3315,7 +3333,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3327,7 +3345,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,11 +3395,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3393,28 +3411,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3426,31 +3444,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,31 +3477,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,28 +3510,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3532,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3615,7 +3633,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3631,7 +3649,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,11 +3692,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3725,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3730,7 +3748,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3846,7 +3864,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3862,7 +3880,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3879,7 +3897,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3895,7 +3913,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,31 +3972,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,31 +4005,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4044,7 +4062,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>118</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4093,7 +4111,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4110,7 +4128,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,7 +4170,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,7 +4269,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,11 +4385,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4416,7 +4434,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4489,7 +4507,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4598,49 +4616,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5715.2950000000001</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>278</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>279</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>280</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>49</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>151</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>16</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>49</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>276</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6059.2950000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>284</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>285</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>286</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5124,10 +5208,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -161,12 +185,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -257,9 +287,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -461,6 +488,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
@@ -515,9 +551,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -665,9 +698,6 @@
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -737,9 +767,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -863,7 +890,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:39 PM</t>
+    <t>Tuesday, 29 July, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,7 +1696,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1679,14 +1706,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1719,7 +1746,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1735,7 +1762,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1745,11 +1772,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1778,11 +1805,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1794,28 +1821,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1860,28 +1887,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2009,14 +2036,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2065,7 +2092,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2098,7 +2125,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2148,7 +2175,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2164,7 +2191,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2197,7 +2224,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2230,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,7 +2316,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2302,18 +2329,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,11 +2366,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2379,7 +2406,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2401,7 +2428,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2428,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2461,7 +2488,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2475,10 +2502,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2593,7 +2620,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2640,10 +2667,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2692,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2775,7 +2802,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2791,7 +2818,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2850,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2989,7 +3016,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3006,7 +3033,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3022,7 +3049,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3039,7 +3066,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3055,7 +3082,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3069,10 +3096,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3237,7 +3264,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3253,7 +3280,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3319,7 +3346,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3385,7 +3412,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3418,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3451,24 +3478,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3510,28 +3537,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3576,28 +3603,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3642,31 +3669,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3946,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,31 +4065,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,31 +4197,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,31 +4230,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4269,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4315,18 +4342,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4342,21 +4369,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4368,31 +4395,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,7 +4461,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4447,18 +4474,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4500,31 +4527,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4546,18 +4573,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,28 +4593,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4599,31 +4626,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,31 +4659,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4665,7 +4692,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4678,53 +4705,185 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6059.2950000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>284</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>20</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>57</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>143</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>288</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>289</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>57</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>143</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>16</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>57</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>163</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>57</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>285</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>286</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6268.8649999999998</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5218,10 +5377,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -266,6 +266,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -293,6 +299,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -563,6 +578,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -890,7 +914,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:43 PM</t>
+    <t>Tuesday, 29 July, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,11 +2291,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2283,14 +2307,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2403,10 +2427,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,31 +2439,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,31 +2505,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2597,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2620,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2667,10 +2691,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2852,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2861,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2925,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2950,7 +2974,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2967,7 +2991,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3271,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3264,7 +3288,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3280,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,7 +3462,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,31 +3627,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,7 +3660,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3653,14 +3677,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,7 +3693,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3682,15 +3706,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3702,28 +3726,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3735,7 +3759,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,31 +3792,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3874,7 +3898,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,7 +4056,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4138,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,28 +4221,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4230,31 +4254,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>76</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,31 +4287,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4350,10 +4374,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>269</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>241</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,7 +4617,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4610,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,14 +4799,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>187</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,7 +4815,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4808,14 +4832,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4841,49 +4865,148 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>297</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>57</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>148</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6268.8649999999998</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>57</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>168</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>16</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>57</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>293</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>294</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>295</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6387.8950000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>301</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>302</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>303</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5520,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -665,6 +674,9 @@
     <t>116.00</t>
   </si>
   <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>REBO SACHET</t>
   </si>
   <si>
@@ -785,6 +797,9 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -914,7 +929,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:50 PM</t>
+    <t>Tuesday, 29 July, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3073,7 +3088,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3172,7 +3187,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3189,7 +3204,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3205,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3222,7 +3237,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,7 +3270,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3288,7 +3303,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3304,7 +3319,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3318,10 +3333,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3370,7 +3385,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3436,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3568,7 +3583,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3626,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3648,7 +3663,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3660,7 +3675,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3700,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3726,28 +3741,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3759,31 +3774,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,28 +3807,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3825,28 +3840,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,11 +3890,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3931,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4089,7 +4104,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4106,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4311,7 +4326,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,28 +4335,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4353,31 +4368,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4418,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,7 +4533,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>277</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4558,7 +4573,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,7 +4599,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4601,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,7 +4632,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4634,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4716,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4748,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4782,7 +4797,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4799,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>291</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4946,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,49 +4979,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6387.8950000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>302</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>303</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>57</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>171</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>16</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>57</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>298</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6547.335</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>306</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>307</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>308</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5535,10 +5616,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -614,6 +614,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -698,13 +710,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:16</t>
+    <t>0:15</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
@@ -770,9 +782,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -929,7 +938,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:57 PM</t>
+    <t>Tuesday, 29 July, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3583,7 +3592,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,7 +3668,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3682,7 +3691,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3708,7 +3717,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3774,28 +3783,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3807,28 +3816,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3840,28 +3849,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3873,28 +3882,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4137,7 +4146,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4401,28 +4410,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4474,7 +4483,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4507,7 +4516,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>158</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4573,7 +4582,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,7 +4641,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,7 +4674,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,7 +4707,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,11 +4856,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4903,7 +4912,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>299</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4936,7 +4945,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4983,10 +4992,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5002,7 +5011,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,7 +5037,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5045,49 +5054,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6547.335</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>306</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>307</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>308</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>57</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>301</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6704.3850000000002</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>309</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>310</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>311</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5626,10 +5668,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CARFALONE 25MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>98.50</t>
+  </si>
+  <si>
+    <t>49.2500</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -422,6 +431,15 @@
     <t>79.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -437,6 +455,15 @@
     <t>144.00</t>
   </si>
   <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -653,6 +680,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>54.7800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -770,6 +806,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -872,7 +917,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -938,7 +983,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 9:59 PM</t>
+    <t>Tuesday, 29 July, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2317,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2289,7 +2334,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2315,14 +2360,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2331,14 +2376,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2371,7 +2416,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2404,7 +2449,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,14 +2459,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2430,14 +2475,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2451,10 +2496,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2463,14 +2508,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2480,14 +2525,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2496,14 +2541,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2513,14 +2558,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2529,20 +2574,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2569,13 +2614,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2586,7 +2631,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2602,7 +2647,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2619,7 +2664,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2635,7 +2680,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2652,7 +2697,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2668,7 +2713,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2678,14 +2723,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2701,7 +2746,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,14 +2756,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,14 +2772,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2744,14 +2789,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2767,7 +2812,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2800,7 +2845,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2833,7 +2878,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,14 +2888,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,20 +2904,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2880,10 +2925,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,14 +2937,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2970,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,14 +2987,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2958,14 +3003,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2975,14 +3020,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,14 +3036,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3015,7 +3060,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3031,7 +3076,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,14 +3086,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,14 +3102,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,11 +3119,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3090,14 +3135,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,11 +3152,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3123,14 +3168,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3185,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3156,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3218,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3234,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3251,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3222,14 +3267,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,11 +3284,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3262,7 +3307,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3295,7 +3340,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3312,7 +3357,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3328,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3345,7 +3390,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3361,7 +3406,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3375,10 +3420,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3432,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3453,14 +3498,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,14 +3515,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3486,14 +3531,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3503,11 +3548,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3519,14 +3564,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3597,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,7 +3614,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3592,7 +3637,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3647,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3618,14 +3663,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,11 +3680,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3651,14 +3696,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3713,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,7 +3753,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3724,7 +3769,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3738,10 +3783,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3750,7 +3795,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3767,14 +3812,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3790,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3845,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3816,31 +3861,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3849,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3911,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,28 +3927,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3915,14 +3960,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3948,28 +3993,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3981,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,31 +4059,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4054,7 +4099,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,11 +4109,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4080,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,11 +4142,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4113,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4175,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,14 +4191,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4208,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,11 +4241,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4212,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,11 +4373,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4344,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4406,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4384,7 +4429,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4401,7 +4446,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4417,7 +4462,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,14 +4472,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,31 +4488,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,31 +4521,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4516,24 +4561,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,31 +4587,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,7 +4620,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4588,18 +4633,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4615,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4641,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4703,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4691,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>202</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,7 +4785,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4757,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4806,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,7 +4884,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4856,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,14 +4917,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4934,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,7 +4950,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4922,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,14 +5000,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,11 +5033,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5004,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5070,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,49 +5132,214 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>315</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6704.3850000000002</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>309</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>310</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>311</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>57</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>316</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>318</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>20</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>57</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>157</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>319</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>320</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>57</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>157</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>16</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>57</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>180</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>57</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>316</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7021.0349999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>324</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>325</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>326</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5673,10 +5883,35 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:10 PM</t>
+    <t>Tuesday, 29 July, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DAKY SUNSCREEN CREAM 6GM</t>
   </si>
   <si>
@@ -632,9 +644,6 @@
     <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>76.00</t>
   </si>
   <si>
@@ -983,7 +992,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:15 PM</t>
+    <t>Tuesday, 29 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2614,24 +2623,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2640,31 +2649,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,11 +2864,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,31 +2913,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,31 +2946,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3060,7 +3069,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,7 +3102,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3333,7 +3342,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3663,7 +3672,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,7 +3722,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3736,7 +3745,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3786,7 +3795,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3802,7 +3811,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3967,7 +3976,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,11 +3986,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3993,28 +4002,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4026,24 +4035,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4066,21 +4075,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4092,28 +4101,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4132,7 +4141,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4215,7 +4224,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4231,7 +4240,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,11 +4316,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4330,7 +4339,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4446,7 +4455,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,7 +4488,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4495,7 +4504,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4528,7 +4537,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>276</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4637,11 +4646,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4653,28 +4662,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4726,7 +4735,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4759,7 +4768,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4792,7 +4801,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>207</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4825,7 +4834,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,7 +4893,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,7 +4926,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>211</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,7 +4959,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5016,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5115,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5155,7 +5164,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5174,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>317</v>
-      </c>
-      <c t="s" r="Q114" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5188,7 +5197,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,14 +5240,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5254,7 +5263,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,14 +5273,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5280,7 +5289,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5297,49 +5306,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7021.0349999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>324</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>325</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>326</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>57</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>319</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7044.0349999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>327</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>328</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>329</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5908,10 +5950,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -764,6 +773,15 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -836,6 +854,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -917,9 +938,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>10:0</t>
   </si>
   <si>
@@ -962,9 +980,6 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم ايفا  وسط</t>
   </si>
   <si>
@@ -992,7 +1007,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:17 PM</t>
+    <t>Tuesday, 29 July, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2425,13 +2440,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2442,7 +2457,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2458,7 +2473,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2491,7 +2506,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2538,10 +2553,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,14 +2615,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2649,20 +2664,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2673,7 +2688,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2689,13 +2704,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2706,7 +2721,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2722,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2739,7 +2754,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2755,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2772,7 +2787,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2788,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2821,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2887,7 +2902,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2920,7 +2935,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2953,24 +2968,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2986,24 +3001,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3052,7 +3067,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3085,7 +3100,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3144,14 +3159,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3165,10 +3180,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3217,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3283,7 +3298,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3300,7 +3315,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3316,7 +3331,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,14 +3341,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,14 +3374,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3415,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3432,7 +3447,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3448,7 +3463,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3465,7 +3480,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3498,7 +3513,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3514,7 +3529,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3531,7 +3546,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3547,7 +3562,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3561,10 +3576,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3613,7 +3628,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3679,7 +3694,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3755,7 +3770,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3778,7 +3793,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3828,7 +3843,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3844,7 +3859,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3870,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3887,11 +3902,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3903,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,14 +3935,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>228</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3953,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,7 +3984,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3986,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4009,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,11 +4034,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4035,28 +4050,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4068,24 +4083,24 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4108,21 +4123,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4134,28 +4149,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4174,7 +4189,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4200,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4233,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4257,7 +4272,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4273,7 +4288,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,11 +4298,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,11 +4397,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,11 +4430,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4464,7 +4479,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4481,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4504,7 +4519,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4537,7 +4552,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4554,7 +4569,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4570,7 +4585,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4580,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4596,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4613,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4636,7 +4651,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4646,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,28 +4710,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4728,31 +4743,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,7 +4908,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4910,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>303</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>305</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4959,7 +4974,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4976,14 +4991,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>214</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,7 +5007,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5009,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5025,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5042,14 +5057,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5091,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5124,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5141,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5157,7 +5172,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5174,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5230,7 +5245,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,14 +5255,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5256,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,11 +5321,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5322,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,49 +5354,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>164</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>330</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7044.0349999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>327</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>328</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>329</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>57</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>187</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>16</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>57</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>324</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7189.9350000000004</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>332</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>333</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>334</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5955,10 +6036,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>70.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -683,7 +683,7 @@
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>108.0000</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -986,9 +986,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -1007,7 +1004,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:24 PM</t>
+    <t>Tuesday, 29 July, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2935,7 +2932,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2952,7 +2949,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3892,7 +3889,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3909,7 +3906,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -5292,7 +5289,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5304,7 +5301,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5337,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>118</v>
@@ -5370,7 +5367,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5403,7 +5400,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5424,7 +5421,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5432,13 +5429,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>7189.9350000000004</v>
+        <v>7278.9350000000004</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5446,13 +5443,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:25 PM</t>
+    <t>Tuesday, 29 July, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -929,6 +929,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -1004,7 +1016,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:34 PM</t>
+    <t>Tuesday, 29 July, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4945,7 +4957,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +4967,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4971,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>309</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,7 +5016,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5021,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,7 +5049,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5054,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>217</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,7 +5082,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5087,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5132,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5165,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5169,14 +5181,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>281</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5355,10 +5367,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,7 +5412,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5417,49 +5429,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>16</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>57</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>328</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>143</v>
       </c>
-      <c t="s" r="Q121" s="12">
+      <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7278.9350000000004</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>332</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>333</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7503.9350000000004</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>335</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>336</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>337</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6088,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -446,93 +446,99 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>111.3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>23.5200</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>7:9</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -629,9 +635,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -671,6 +674,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -728,6 +740,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -1016,7 +1037,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 10:38 PM</t>
+    <t>Tuesday, 29 July, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2994,7 +3015,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3192,7 +3213,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3201,7 +3222,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3218,7 +3239,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3234,7 +3255,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3267,7 +3288,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3288,7 +3309,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3333,7 +3354,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3366,7 +3387,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3399,7 +3420,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3416,11 +3437,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3432,7 +3453,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3449,11 +3470,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3465,7 +3486,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3498,7 +3519,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3515,11 +3536,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3531,7 +3552,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>69</v>
@@ -3564,7 +3585,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,7 +3618,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3614,11 +3635,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3630,7 +3651,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3647,11 +3668,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3663,7 +3684,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3684,7 +3705,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>74</v>
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3717,7 +3738,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3729,7 +3750,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3762,7 +3783,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3783,7 +3804,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3795,7 +3816,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3812,11 +3833,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,11 +3866,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>76</v>
@@ -3861,7 +3882,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3874,15 +3895,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,11 +3932,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3967,7 +3988,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>231</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3993,7 +4014,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,7 +4047,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,11 +4097,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4092,28 +4113,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4163,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,11 +4196,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,11 +4229,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4224,28 +4245,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4290,7 +4311,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4307,7 +4328,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4330,7 +4351,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,11 +4394,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,11 +4460,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4455,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,11 +4493,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4488,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,11 +4526,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4521,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4559,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,7 +4575,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4571,14 +4592,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4608,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,11 +4625,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4620,14 +4641,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4658,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4674,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4691,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4707,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,14 +4724,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>286</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4726,7 +4747,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,28 +4806,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4818,31 +4839,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4872,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4938,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4955,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4990,7 +5011,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5021,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,14 +5037,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5054,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5070,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5087,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,7 +5103,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5099,14 +5120,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>217</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,7 +5136,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5132,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,14 +5169,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5219,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5214,14 +5235,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5252,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5247,14 +5268,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5285,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5280,7 +5301,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5297,14 +5318,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>281</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5334,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5351,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>176</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5367,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5384,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5400,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,14 +5417,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5433,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,11 +5450,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5445,14 +5466,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,49 +5483,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>340</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>57</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>189</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>341</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>16</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>57</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>335</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>143</v>
       </c>
-      <c t="s" r="Q122" s="12">
+      <c t="s" r="Q124" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7503.9350000000004</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>335</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>336</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>337</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7628.5349999999999</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>342</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>343</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>344</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6093,10 +6180,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:14 PM</t>
+    <t>Tuesday, 29 July, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -353,579 +353,579 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DAKY SUNSCREEN CREAM 6GM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>111.3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>7:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>23.5200</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>335.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>54.7800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>18.4800</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8468:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DAKY SUNSCREEN CREAM 6GM</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>111.3600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>7:9</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>ESSENTIALE FORTE 300MG 30CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>31.3500</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>23.5200</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>335.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>54.7800</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PROTOFIX 40MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>REBO SACHET</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TAVANIC 500MG 5 TAB</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>18.4800</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8468:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>ZINCOLIVE LOTION 60 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:15 PM</t>
+    <t>Tuesday, 29 July, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2685,7 +2685,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2991,14 +2991,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>42</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3090,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3156,14 +3156,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,11 +3173,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>69</v>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3206,14 +3206,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3321,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,11 +3338,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3437,11 +3437,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3470,11 +3470,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3503,11 +3503,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3536,11 +3536,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3569,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>69</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3602,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3668,11 +3668,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>74</v>
@@ -3717,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3767,11 +3767,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3833,11 +3833,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3849,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,11 +3866,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>76</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3899,11 +3899,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3932,11 +3932,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3965,11 +3965,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3981,14 +3981,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3998,11 +3998,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4031,14 +4031,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>235</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4064,11 +4064,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4097,11 +4097,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4229,11 +4229,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4262,11 +4262,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4295,11 +4295,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4328,11 +4328,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4344,14 +4344,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,11 +4361,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>69</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4394,11 +4394,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4427,11 +4427,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>74</v>
@@ -4443,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4493,11 +4493,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4559,11 +4559,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4625,11 +4625,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4658,11 +4658,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4724,11 +4724,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4740,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4773,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>293</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4872,14 +4872,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4905,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>76</v>
@@ -4938,14 +4938,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5087,11 +5087,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5193,7 +5193,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5242,7 +5242,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5252,11 +5252,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5351,11 +5351,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5384,14 +5384,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5450,11 +5450,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5516,11 +5516,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>7628.5349999999999</v>
+        <v>7661.5349999999999</v>
       </c>
       <c r="Q125" s="13"/>
     </row>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Tuesday, 29 July, 2025 11:19 PM</t>
+    <t>Tuesday, 29 July, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-29_00-00.xlsx
+++ b/DaySale_2025-07-29_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -767,9 +776,6 @@
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -900,6 +906,9 @@
   </si>
   <si>
     <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -2503,7 +2512,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2536,7 +2545,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2569,7 +2578,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2616,10 +2625,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2727,20 +2736,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2751,7 +2760,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2767,13 +2776,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2784,7 +2793,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2817,7 +2826,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2850,7 +2859,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2866,7 +2875,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2899,7 +2908,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3031,24 +3040,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3064,24 +3073,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3130,7 +3139,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3295,7 +3304,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3378,7 +3387,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3510,7 +3519,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3526,7 +3535,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3543,7 +3552,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,7 +3585,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3609,7 +3618,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>174</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3625,7 +3634,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3639,10 +3648,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3691,7 +3700,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3833,7 +3842,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3856,7 +3865,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,20 +3891,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3906,7 +3915,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3928,7 +3937,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3955,7 +3964,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4080,7 +4089,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4120,7 +4129,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4186,24 +4195,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4212,24 +4221,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4252,21 +4261,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4278,28 +4287,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4318,7 +4327,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,7 +4337,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4351,7 +4360,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I92" s="9"/>
    